--- a/biology/Microbiologie/Malacophrys/Malacophrys.xlsx
+++ b/biology/Microbiologie/Malacophrys/Malacophrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacophryidae
 Malacophrys, unique représentant de la famille des Malacophryidae, est un genre de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Malacophrys, dérive du grec ancien μαλακός / malakós, « mou », par allusion aux mollusques, et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié de mollusque », peut-être en référence à la vie parasitaire de ce cilié dans des mollusques.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cilié est de petite taille (&lt; 80 μm). Sa forme est ovoïde. Il vit en natation libre. Il présente des alvéoles à motifs réguliers, presque quadrangulaires. Sa ciliation se présente sous la forme de kinéties bipolaires ; on observe aussi un dikinétide buccale le long du côté droit de la zone buccale ; deux unités de « brosses » allongées le long du côté gauche de la zone buccale. Le cyrtos (appareil cytopharyngé tubulaire) présente de fins nématodesmes[note 1]. Son macronoyau est globulaire. Micronoyau et vacuole contractile sont présents[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cilié est de petite taille (&lt; 80 μm). Sa forme est ovoïde. Il vit en natation libre. Il présente des alvéoles à motifs réguliers, presque quadrangulaires. Sa ciliation se présente sous la forme de kinéties bipolaires ; on observe aussi un dikinétide buccale le long du côté droit de la zone buccale ; deux unités de « brosses » allongées le long du côté gauche de la zone buccale. Le cyrtos (appareil cytopharyngé tubulaire) présente de fins nématodesmes[note 1]. Son macronoyau est globulaire. Micronoyau et vacuole contractile sont présents.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cilié vit dans des habitats terrestres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cilié vit dans des habitats terrestres.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 novembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 novembre 2023) :
 Malacophrys rotans Kahl, 1926 Espèce type
 Malacophrys sphagni Penard, 1922
 Malacophrys viridis Foissner, 1980</t>
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Foissner (de), en 1980, a créé provisoirement la famille des Malacophryidae pour ce cilié. L'étude des ultrastructures et des données génétiques moléculaires sont nécessaires pour préciser la systématique ce ce taxon[1].  
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foissner (de), en 1980, a créé provisoirement la famille des Malacophryidae pour ce cilié. L'étude des ultrastructures et des données génétiques moléculaires sont nécessaires pour préciser la systématique ce ce taxon.  
 </t>
         </is>
       </c>
